--- a/Excel-ETL/1.xlsx
+++ b/Excel-ETL/1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\PythonNewProject\Excel-ETL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4F903A-FA4A-4569-8D4F-0B92102EBA94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0E2B88-7D06-4F26-AED4-422A1FF73470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="87">
   <si>
     <t>序号(*)</t>
   </si>
@@ -354,6 +354,14 @@
   </si>
   <si>
     <t>ACCEPTANCE_LOG</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE_ITEM_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCEPTANCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -753,11 +761,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="37" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="72" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -823,7 +834,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
@@ -1963,7 +1974,7 @@
         <v>19</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4" t="s">
